--- a/xlsx/政府部門_intext.xlsx
+++ b/xlsx/政府部門_intext.xlsx
@@ -29,7 +29,7 @@
     <t>官方 (法人)</t>
   </si>
   <si>
-    <t>政策_政策_公共政策_政府部門</t>
+    <t>体育运动_体育运动_古埃及_政府部門</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
